--- a/Networks/Parte3/Excel/Network16.xlsx
+++ b/Networks/Parte3/Excel/Network16.xlsx
@@ -524,52 +524,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.55036781204781</v>
+        <v>-4.651968112421115</v>
       </c>
       <c r="C2" t="n">
-        <v>1.680109264880934</v>
+        <v>0.3199272236125825</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.617489182190154</v>
+        <v>-1.213589177504441</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.104483116616181</v>
+        <v>0.05882924384248901</v>
       </c>
       <c r="F2" t="n">
-        <v>2.373398352918963</v>
+        <v>-2.721855465877633</v>
       </c>
       <c r="G2" t="n">
-        <v>3.980422442938378</v>
+        <v>3.687301547932157</v>
       </c>
       <c r="H2" t="n">
-        <v>-5.165752485164741</v>
+        <v>-3.154517396286086</v>
       </c>
       <c r="I2" t="n">
-        <v>-5.532639287654271</v>
+        <v>-8.973328325686738</v>
       </c>
       <c r="J2" t="n">
-        <v>-6.749602641224959</v>
+        <v>0.7887606495005158</v>
       </c>
       <c r="K2" t="n">
-        <v>-5.641557921028463</v>
+        <v>-0.8773487503236762</v>
       </c>
       <c r="L2" t="n">
-        <v>-9.166602138678371</v>
+        <v>0.7139641943800322</v>
       </c>
       <c r="M2" t="n">
-        <v>5.063598260801382</v>
+        <v>5.100921333029097</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.920086716811012</v>
+        <v>-3.221416203891608</v>
       </c>
       <c r="O2" t="n">
-        <v>1.603867266591376</v>
+        <v>4.455733949134388</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.614292007826986</v>
+        <v>6.104686149709434</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.08933384301231345</v>
+        <v>-0.5110331822840476</v>
       </c>
     </row>
     <row r="3">
@@ -579,52 +579,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.43589841346881</v>
+        <v>-1.355289232618496</v>
       </c>
       <c r="C3" t="n">
-        <v>1.523036658001894</v>
+        <v>1.498178373125511</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.158053500695717</v>
+        <v>3.076712849820554</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.09475736620069035</v>
+        <v>0.5451097286303356</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.129311487789408</v>
+        <v>-1.671326240878229</v>
       </c>
       <c r="G3" t="n">
-        <v>2.299551160167266</v>
+        <v>-2.285656069509277</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.120760753761925</v>
+        <v>-0.3740969033482252</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2231550100472484</v>
+        <v>-2.234930095312851</v>
       </c>
       <c r="J3" t="n">
-        <v>-1.624139909423714</v>
+        <v>5.170240301407581</v>
       </c>
       <c r="K3" t="n">
-        <v>4.288714759761302</v>
+        <v>0.8898644087355447</v>
       </c>
       <c r="L3" t="n">
-        <v>-2.109399236187169</v>
+        <v>0.3096916883932206</v>
       </c>
       <c r="M3" t="n">
-        <v>2.096306298628511</v>
+        <v>-3.625325201393851</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.1132196203776737</v>
+        <v>-3.270514088977783</v>
       </c>
       <c r="O3" t="n">
-        <v>3.037302722542492</v>
+        <v>0.779487555070089</v>
       </c>
       <c r="P3" t="n">
-        <v>1.746364574353559</v>
+        <v>1.01566080836038</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.773949813275987</v>
+        <v>-2.941699634952081</v>
       </c>
     </row>
     <row r="4">
@@ -634,52 +634,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7648771345530708</v>
+        <v>3.78613942150798</v>
       </c>
       <c r="C4" t="n">
-        <v>7.1345200460651</v>
+        <v>2.191256352398883</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.488414305783575</v>
+        <v>0.7689871978256049</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.279970611566256</v>
+        <v>8.253650831768791</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.239111589235584</v>
+        <v>-4.085025275706212</v>
       </c>
       <c r="G4" t="n">
-        <v>2.886580524411722</v>
+        <v>-1.962804743283969</v>
       </c>
       <c r="H4" t="n">
-        <v>8.745675302091314</v>
+        <v>-2.718137087113132</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.68685606348055</v>
+        <v>2.212742426810743</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.8735857752761643</v>
+        <v>1.405612970279424</v>
       </c>
       <c r="K4" t="n">
-        <v>2.971362066586379</v>
+        <v>-3.160244109890405</v>
       </c>
       <c r="L4" t="n">
-        <v>3.081131020310002</v>
+        <v>1.76448642389058</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3513548129427649</v>
+        <v>-3.884841821281861</v>
       </c>
       <c r="N4" t="n">
-        <v>7.013471966556478</v>
+        <v>-2.763162736267853</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.4365631263521634</v>
+        <v>-8.036676673404795</v>
       </c>
       <c r="P4" t="n">
-        <v>4.796202911381783</v>
+        <v>-1.079354068257501</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1.608686486248845</v>
+        <v>-0.6454604972423791</v>
       </c>
     </row>
     <row r="5">
@@ -689,52 +689,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.964248248916387</v>
+        <v>-1.595020618210012</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.207160552647497</v>
+        <v>-0.6095588971095882</v>
       </c>
       <c r="D5" t="n">
-        <v>1.126417583312162</v>
+        <v>-1.969264812872284</v>
       </c>
       <c r="E5" t="n">
-        <v>2.718338318315101</v>
+        <v>-2.219013037302394</v>
       </c>
       <c r="F5" t="n">
-        <v>2.176087308834544</v>
+        <v>1.650480393646374</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.288718807230152</v>
+        <v>2.832849948792493</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.230564465170233</v>
+        <v>1.981834075831763</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.094897580109982</v>
+        <v>-0.3632443234000373</v>
       </c>
       <c r="J5" t="n">
-        <v>6.618428514937575</v>
+        <v>-0.8523474583975876</v>
       </c>
       <c r="K5" t="n">
-        <v>1.264564985073989</v>
+        <v>3.07124312264388</v>
       </c>
       <c r="L5" t="n">
-        <v>-1.068417930749362</v>
+        <v>0.9602951137130332</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.187882768665297</v>
+        <v>-1.733151876420568</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.479052279101706</v>
+        <v>1.780653230389478</v>
       </c>
       <c r="O5" t="n">
-        <v>1.240586911413179</v>
+        <v>0.8699209591603677</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.38792472187236</v>
+        <v>-6.766446181995086</v>
       </c>
       <c r="Q5" t="n">
-        <v>-3.11120839716432</v>
+        <v>2.075145973636541</v>
       </c>
     </row>
     <row r="6">
@@ -744,52 +744,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.702965465981436</v>
+        <v>-0.778565950607754</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.7020706900774366</v>
+        <v>6.246925885220882</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5385411566858773</v>
+        <v>-4.040357870808652</v>
       </c>
       <c r="E6" t="n">
-        <v>-5.267666671075044</v>
+        <v>0.1949037966116655</v>
       </c>
       <c r="F6" t="n">
-        <v>5.376868349838611</v>
+        <v>2.474669381968873</v>
       </c>
       <c r="G6" t="n">
-        <v>-3.524969218393469</v>
+        <v>4.960133848788453</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.064881455668131</v>
+        <v>-2.512214490642664</v>
       </c>
       <c r="I6" t="n">
-        <v>4.193293456520804</v>
+        <v>-8.930551866512268</v>
       </c>
       <c r="J6" t="n">
-        <v>1.048453136587577</v>
+        <v>-1.063690816624645</v>
       </c>
       <c r="K6" t="n">
-        <v>-1.530525773015472</v>
+        <v>-4.293550632813429</v>
       </c>
       <c r="L6" t="n">
-        <v>-7.060618495869556</v>
+        <v>-0.6653553823763896</v>
       </c>
       <c r="M6" t="n">
-        <v>9.328118883579299</v>
+        <v>1.594813428431989</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3506245911095959</v>
+        <v>4.061310393999485</v>
       </c>
       <c r="O6" t="n">
-        <v>-2.647512969153283</v>
+        <v>1.20736868850456</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.4665129449141523</v>
+        <v>0.1028660952319049</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.726994411759074</v>
+        <v>-0.246291740545291</v>
       </c>
     </row>
     <row r="7">
@@ -799,52 +799,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.977796764743784</v>
+        <v>2.348703619816927</v>
       </c>
       <c r="C7" t="n">
-        <v>3.572168017676665</v>
+        <v>-0.9869239512761522</v>
       </c>
       <c r="D7" t="n">
-        <v>6.94522389026664</v>
+        <v>1.490154614888753</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.355200675868992</v>
+        <v>0.819513033332126</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.258782959234896</v>
+        <v>0.3407076974492702</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.159176874113035</v>
+        <v>-3.200643351501788</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.284296567228488</v>
+        <v>-2.468421587716509</v>
       </c>
       <c r="I7" t="n">
-        <v>3.840276751322851</v>
+        <v>0.09388305768003274</v>
       </c>
       <c r="J7" t="n">
-        <v>-1.812163011769236</v>
+        <v>-6.404304572117677</v>
       </c>
       <c r="K7" t="n">
-        <v>-5.758691826337648</v>
+        <v>-3.623237482413045</v>
       </c>
       <c r="L7" t="n">
-        <v>0.632222515892364</v>
+        <v>-3.354463130684142</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.9095166497411939</v>
+        <v>6.694239313449123</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.5587177651248274</v>
+        <v>2.676477416826273</v>
       </c>
       <c r="O7" t="n">
-        <v>-2.568713506783883</v>
+        <v>1.931556765593156</v>
       </c>
       <c r="P7" t="n">
-        <v>4.350458297486242</v>
+        <v>2.978890138115263</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.586438127332191</v>
+        <v>-6.558043444040501</v>
       </c>
     </row>
   </sheetData>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.5023962837858</v>
+        <v>-3.67877393229235</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.871409305265611</v>
+        <v>-4.559229601873704</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.974514811545276</v>
+        <v>-1.795812826129106</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.428443908187968</v>
+        <v>-4.493073084950532</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.384948444725143</v>
+        <v>-1.816118240887888</v>
       </c>
     </row>
     <row r="3">
@@ -922,19 +922,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4.865585033427116</v>
+        <v>1.37875237629632</v>
       </c>
       <c r="C3" t="n">
-        <v>3.411648219313565</v>
+        <v>-2.383565229616215</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.283865896094899</v>
+        <v>1.564534506942169</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.129382475843073</v>
+        <v>-2.27221244343842</v>
       </c>
       <c r="F3" t="n">
-        <v>2.323347788345279</v>
+        <v>-5.486375579984861</v>
       </c>
     </row>
     <row r="4">
@@ -944,19 +944,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.571056262496301</v>
+        <v>3.13492262151221</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.145735716020758</v>
+        <v>-2.278479595797708</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4317846058704057</v>
+        <v>-4.975181069484655</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.840482620624835</v>
+        <v>1.807849160074941</v>
       </c>
       <c r="F4" t="n">
-        <v>7.238622708417917</v>
+        <v>-0.180513379099211</v>
       </c>
     </row>
     <row r="5">
@@ -966,19 +966,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.401541011609079</v>
+        <v>-4.029155944660562</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.38075096790331</v>
+        <v>-4.200831107853952</v>
       </c>
       <c r="D5" t="n">
-        <v>3.887920682489305</v>
+        <v>3.540578668196304</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.19444973509573</v>
+        <v>1.172162859698816</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.575098846028955</v>
+        <v>-3.613748432004836</v>
       </c>
     </row>
     <row r="6">
@@ -988,19 +988,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.479591636157399</v>
+        <v>-2.616878907824075</v>
       </c>
       <c r="C6" t="n">
-        <v>3.145028892013109</v>
+        <v>-5.352822294509116</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.712484605951303</v>
+        <v>3.963673270340919</v>
       </c>
       <c r="E6" t="n">
-        <v>2.427158596449372</v>
+        <v>-6.694497631964569</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.198930638400411</v>
+        <v>4.471729198419041</v>
       </c>
     </row>
     <row r="7">
@@ -1010,19 +1010,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.319994939381939</v>
+        <v>4.391405553220466</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4943160049207219</v>
+        <v>3.379695874319064</v>
       </c>
       <c r="D7" t="n">
-        <v>-5.282904818602717</v>
+        <v>-0.5529734841351881</v>
       </c>
       <c r="E7" t="n">
-        <v>-5.704893032649634</v>
+        <v>-5.599077270787865</v>
       </c>
       <c r="F7" t="n">
-        <v>2.80227273855964</v>
+        <v>-5.708626251008716</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.030005016414017</v>
+        <v>0.2603714250372132</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.925178887827511</v>
+        <v>-1.206259173061807</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3706252544036981</v>
+        <v>-4.867326906775545</v>
       </c>
       <c r="E8" t="n">
-        <v>4.937550735079464</v>
+        <v>-5.401514226454959</v>
       </c>
       <c r="F8" t="n">
-        <v>2.212949753171125</v>
+        <v>4.148691235148113</v>
       </c>
     </row>
     <row r="9">
@@ -1054,19 +1054,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.4995987849175</v>
+        <v>-3.631416560820565</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.876132287163553</v>
+        <v>3.522903267833373</v>
       </c>
       <c r="D9" t="n">
-        <v>3.869108285847137</v>
+        <v>0.02359518056822767</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.769791483086728</v>
+        <v>2.147193914060618</v>
       </c>
       <c r="F9" t="n">
-        <v>3.297542351204658</v>
+        <v>-3.899377559726754</v>
       </c>
     </row>
     <row r="10">
@@ -1076,19 +1076,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.925564471463872</v>
+        <v>-1.579003904740546</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.619533701023557</v>
+        <v>-3.600647863225803</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.020713714945608</v>
+        <v>4.756874477663022</v>
       </c>
       <c r="E10" t="n">
-        <v>-6.199793230818569</v>
+        <v>-6.665633419237031</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.981062913138234</v>
+        <v>-1.431661294217504</v>
       </c>
     </row>
     <row r="11">
@@ -1098,19 +1098,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.081294838198547</v>
+        <v>-5.733641121959042</v>
       </c>
       <c r="C11" t="n">
-        <v>5.701127533400436</v>
+        <v>0.2187783419972568</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09416088766115646</v>
+        <v>-3.616510945878727</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.46690944108081</v>
+        <v>4.592579307285932</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.856794074314542</v>
+        <v>-3.761998626554248</v>
       </c>
     </row>
     <row r="12">
@@ -1120,19 +1120,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3.292575207829545</v>
+        <v>-2.78541731107352</v>
       </c>
       <c r="C12" t="n">
-        <v>2.14399043144984</v>
+        <v>3.311282012717154</v>
       </c>
       <c r="D12" t="n">
-        <v>3.720498196855006</v>
+        <v>-1.445455048731638</v>
       </c>
       <c r="E12" t="n">
-        <v>-4.763772254133995</v>
+        <v>2.290788933144136</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3858319119181351</v>
+        <v>-2.422485094344136</v>
       </c>
     </row>
     <row r="13">
@@ -1142,19 +1142,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.231127599923366</v>
+        <v>-4.828790099621407</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.528630849955237</v>
+        <v>1.596151895787254</v>
       </c>
       <c r="D13" t="n">
-        <v>2.77853075222319</v>
+        <v>-0.03277843478382848</v>
       </c>
       <c r="E13" t="n">
-        <v>-4.005149916554316</v>
+        <v>-0.9962989724158545</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.925836697028743</v>
+        <v>1.521811805947623</v>
       </c>
     </row>
     <row r="14">
@@ -1164,19 +1164,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7812648835917736</v>
+        <v>2.861809728919606</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.5292407401338477</v>
+        <v>-3.957042194711581</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.749054450082414</v>
+        <v>-4.006528987355455</v>
       </c>
       <c r="E14" t="n">
-        <v>4.405412649377752</v>
+        <v>5.373336847488569</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1116547743994407</v>
+        <v>-2.289803944693718</v>
       </c>
     </row>
     <row r="15">
@@ -1186,19 +1186,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.5978605949877228</v>
+        <v>2.693541888521888</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.270715884341225</v>
+        <v>4.171058537088271</v>
       </c>
       <c r="D15" t="n">
-        <v>3.233233390295748</v>
+        <v>-2.08007914907212</v>
       </c>
       <c r="E15" t="n">
-        <v>-4.392385883688937</v>
+        <v>-7.618266479437511</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3123271027500468</v>
+        <v>-2.010353212917932</v>
       </c>
     </row>
     <row r="16">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4.209548833466526</v>
+        <v>0.9844179201164096</v>
       </c>
       <c r="C16" t="n">
-        <v>1.898315394991828</v>
+        <v>2.23450148900825</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.478735446990831</v>
+        <v>-4.331071536478865</v>
       </c>
       <c r="E16" t="n">
-        <v>1.801372883768066</v>
+        <v>2.147253319961016</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.589869906835022</v>
+        <v>-2.406868734515847</v>
       </c>
     </row>
     <row r="17">
@@ -1230,19 +1230,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5740010203865704</v>
+        <v>0.4618054340097657</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.678816134774598</v>
+        <v>-8.117856574191403</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3703645223360056</v>
+        <v>-0.2747218844424215</v>
       </c>
       <c r="E17" t="n">
-        <v>2.118992706207438</v>
+        <v>5.358480436770769</v>
       </c>
       <c r="F17" t="n">
-        <v>-7.712042227349957</v>
+        <v>0.1567277929826223</v>
       </c>
     </row>
     <row r="18">
@@ -1252,19 +1252,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2217797600023148</v>
+        <v>-6.315692667296799</v>
       </c>
       <c r="C18" t="n">
-        <v>-4.34240391911185</v>
+        <v>0.5682751228517877</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.093130788283072</v>
+        <v>0.3031953747597756</v>
       </c>
       <c r="E18" t="n">
-        <v>1.943396545902244</v>
+        <v>-3.616054561302839</v>
       </c>
       <c r="F18" t="n">
-        <v>-4.804050101355744</v>
+        <v>6.828743496034728</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte3/Excel/Network16.xlsx
+++ b/Networks/Parte3/Excel/Network16.xlsx
@@ -524,52 +524,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-4.651968112421115</v>
+        <v>4.428760977281065</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3199272236125825</v>
+        <v>5.68004101729391</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.213589177504441</v>
+        <v>1.28398298901559</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05882924384248901</v>
+        <v>-0.09737799470081551</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.721855465877633</v>
+        <v>-3.996031393379255</v>
       </c>
       <c r="G2" t="n">
-        <v>3.687301547932157</v>
+        <v>2.836351469593412</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.154517396286086</v>
+        <v>-10.78082964444069</v>
       </c>
       <c r="I2" t="n">
-        <v>-8.973328325686738</v>
+        <v>-4.416459620022924</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7887606495005158</v>
+        <v>2.266107707200173</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.8773487503236762</v>
+        <v>-5.182194156621267</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7139641943800322</v>
+        <v>1.074353398641001</v>
       </c>
       <c r="M2" t="n">
-        <v>5.100921333029097</v>
+        <v>-0.2608857752092035</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.221416203891608</v>
+        <v>-2.934160227012524</v>
       </c>
       <c r="O2" t="n">
-        <v>4.455733949134388</v>
+        <v>-4.769400749600577</v>
       </c>
       <c r="P2" t="n">
-        <v>6.104686149709434</v>
+        <v>0.5615400440118277</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.5110331822840476</v>
+        <v>-1.361707186829378</v>
       </c>
     </row>
     <row r="3">
@@ -579,52 +579,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.355289232618496</v>
+        <v>1.643852847257581</v>
       </c>
       <c r="C3" t="n">
-        <v>1.498178373125511</v>
+        <v>-4.096707362625208</v>
       </c>
       <c r="D3" t="n">
-        <v>3.076712849820554</v>
+        <v>-0.8611787306706729</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5451097286303356</v>
+        <v>-1.065645317002745</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.671326240878229</v>
+        <v>-2.762775790708617</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.285656069509277</v>
+        <v>-3.523584107680517</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.3740969033482252</v>
+        <v>-2.154673030982617</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.234930095312851</v>
+        <v>-1.408398164368273</v>
       </c>
       <c r="J3" t="n">
-        <v>5.170240301407581</v>
+        <v>1.169907205180967</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8898644087355447</v>
+        <v>-0.7154347661372219</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3096916883932206</v>
+        <v>-1.308888399143896</v>
       </c>
       <c r="M3" t="n">
-        <v>-3.625325201393851</v>
+        <v>-2.91041458773474</v>
       </c>
       <c r="N3" t="n">
-        <v>-3.270514088977783</v>
+        <v>-2.179491285932539</v>
       </c>
       <c r="O3" t="n">
-        <v>0.779487555070089</v>
+        <v>-0.8510335758176614</v>
       </c>
       <c r="P3" t="n">
-        <v>1.01566080836038</v>
+        <v>6.290235445771343</v>
       </c>
       <c r="Q3" t="n">
-        <v>-2.941699634952081</v>
+        <v>1.94435150862515</v>
       </c>
     </row>
     <row r="4">
@@ -634,52 +634,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.78613942150798</v>
+        <v>3.366325567154365</v>
       </c>
       <c r="C4" t="n">
-        <v>2.191256352398883</v>
+        <v>-3.968487064366674</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7689871978256049</v>
+        <v>4.267488109370694</v>
       </c>
       <c r="E4" t="n">
-        <v>8.253650831768791</v>
+        <v>-2.624861782503839</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.085025275706212</v>
+        <v>-2.430113144685545</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.962804743283969</v>
+        <v>-1.611875644718587</v>
       </c>
       <c r="H4" t="n">
-        <v>-2.718137087113132</v>
+        <v>2.1771190325869</v>
       </c>
       <c r="I4" t="n">
-        <v>2.212742426810743</v>
+        <v>-1.6332165852322</v>
       </c>
       <c r="J4" t="n">
-        <v>1.405612970279424</v>
+        <v>-8.432290358986549</v>
       </c>
       <c r="K4" t="n">
-        <v>-3.160244109890405</v>
+        <v>8.390306251997949</v>
       </c>
       <c r="L4" t="n">
-        <v>1.76448642389058</v>
+        <v>-5.16006459942593</v>
       </c>
       <c r="M4" t="n">
-        <v>-3.884841821281861</v>
+        <v>0.6615743715784816</v>
       </c>
       <c r="N4" t="n">
-        <v>-2.763162736267853</v>
+        <v>-7.163070274796368</v>
       </c>
       <c r="O4" t="n">
-        <v>-8.036676673404795</v>
+        <v>1.616024909753165</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.079354068257501</v>
+        <v>1.356298075808465</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.6454604972423791</v>
+        <v>0.4850904186612024</v>
       </c>
     </row>
     <row r="5">
@@ -689,52 +689,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1.595020618210012</v>
+        <v>-2.43674075067217</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.6095588971095882</v>
+        <v>-1.759996825274329</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.969264812872284</v>
+        <v>-4.216112783753018</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.219013037302394</v>
+        <v>0.685010539025058</v>
       </c>
       <c r="F5" t="n">
-        <v>1.650480393646374</v>
+        <v>3.537322841478832</v>
       </c>
       <c r="G5" t="n">
-        <v>2.832849948792493</v>
+        <v>2.711845904784169</v>
       </c>
       <c r="H5" t="n">
-        <v>1.981834075831763</v>
+        <v>-0.668878371590327</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3632443234000373</v>
+        <v>-1.618046497710097</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.8523474583975876</v>
+        <v>0.388066165046104</v>
       </c>
       <c r="K5" t="n">
-        <v>3.07124312264388</v>
+        <v>-1.109778968014767</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9602951137130332</v>
+        <v>1.833982858145732</v>
       </c>
       <c r="M5" t="n">
-        <v>-1.733151876420568</v>
+        <v>1.64510854544184</v>
       </c>
       <c r="N5" t="n">
-        <v>1.780653230389478</v>
+        <v>1.605067321707709</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8699209591603677</v>
+        <v>5.111482837362798</v>
       </c>
       <c r="P5" t="n">
-        <v>-6.766446181995086</v>
+        <v>-1.409847753740384</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.075145973636541</v>
+        <v>-1.332390545294078</v>
       </c>
     </row>
     <row r="6">
@@ -744,52 +744,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.778565950607754</v>
+        <v>-2.754977597468207</v>
       </c>
       <c r="C6" t="n">
-        <v>6.246925885220882</v>
+        <v>1.929739458937701</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.040357870808652</v>
+        <v>5.817980089370558</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1949037966116655</v>
+        <v>-6.294909970296125</v>
       </c>
       <c r="F6" t="n">
-        <v>2.474669381968873</v>
+        <v>3.253091955963797</v>
       </c>
       <c r="G6" t="n">
-        <v>4.960133848788453</v>
+        <v>5.458497045139507</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.512214490642664</v>
+        <v>-9.749821194315601</v>
       </c>
       <c r="I6" t="n">
-        <v>-8.930551866512268</v>
+        <v>5.043005874016296</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.063690816624645</v>
+        <v>2.098711525469347</v>
       </c>
       <c r="K6" t="n">
-        <v>-4.293550632813429</v>
+        <v>-0.497657823450561</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.6653553823763896</v>
+        <v>0.7025833378445446</v>
       </c>
       <c r="M6" t="n">
-        <v>1.594813428431989</v>
+        <v>-0.06058678699821454</v>
       </c>
       <c r="N6" t="n">
-        <v>4.061310393999485</v>
+        <v>0.6874597088852906</v>
       </c>
       <c r="O6" t="n">
-        <v>1.20736868850456</v>
+        <v>-0.2081472181665501</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1028660952319049</v>
+        <v>-0.9793616010283673</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.246291740545291</v>
+        <v>-1.635306435982479</v>
       </c>
     </row>
     <row r="7">
@@ -799,52 +799,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.348703619816927</v>
+        <v>-3.541034322644607</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.9869239512761522</v>
+        <v>6.682674823801706</v>
       </c>
       <c r="D7" t="n">
-        <v>1.490154614888753</v>
+        <v>4.524412758245215</v>
       </c>
       <c r="E7" t="n">
-        <v>0.819513033332126</v>
+        <v>0.6885324939148677</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3407076974492702</v>
+        <v>0.1423867779931174</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.200643351501788</v>
+        <v>-2.230092553457439</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.468421587716509</v>
+        <v>0.4129033055013577</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09388305768003274</v>
+        <v>2.659075942738204</v>
       </c>
       <c r="J7" t="n">
-        <v>-6.404304572117677</v>
+        <v>1.627366644491697</v>
       </c>
       <c r="K7" t="n">
-        <v>-3.623237482413045</v>
+        <v>-1.903682071922767</v>
       </c>
       <c r="L7" t="n">
-        <v>-3.354463130684142</v>
+        <v>-6.541444723352545</v>
       </c>
       <c r="M7" t="n">
-        <v>6.694239313449123</v>
+        <v>-6.852057541991772</v>
       </c>
       <c r="N7" t="n">
-        <v>2.676477416826273</v>
+        <v>-4.327647123897681</v>
       </c>
       <c r="O7" t="n">
-        <v>1.931556765593156</v>
+        <v>-3.743478621971892</v>
       </c>
       <c r="P7" t="n">
-        <v>2.978890138115263</v>
+        <v>-7.648350284349853</v>
       </c>
       <c r="Q7" t="n">
-        <v>-6.558043444040501</v>
+        <v>0.6984750508648145</v>
       </c>
     </row>
   </sheetData>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.67877393229235</v>
+        <v>-2.055132281174881</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.559229601873704</v>
+        <v>-4.571133019313372</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.795812826129106</v>
+        <v>-3.415206925965069</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.493073084950532</v>
+        <v>-2.480489795914395</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.816118240887888</v>
+        <v>-3.5353386699153</v>
       </c>
     </row>
     <row r="3">
@@ -922,19 +922,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.37875237629632</v>
+        <v>-5.883305813384701</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.383565229616215</v>
+        <v>-4.962977681949697</v>
       </c>
       <c r="D3" t="n">
-        <v>1.564534506942169</v>
+        <v>-0.1749266489793656</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.27221244343842</v>
+        <v>3.028220914770116</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.486375579984861</v>
+        <v>2.237063706223758</v>
       </c>
     </row>
     <row r="4">
@@ -944,19 +944,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.13492262151221</v>
+        <v>3.537401139773989</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.278479595797708</v>
+        <v>-5.38120102497442</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.975181069484655</v>
+        <v>-3.681158868377262</v>
       </c>
       <c r="E4" t="n">
-        <v>1.807849160074941</v>
+        <v>4.864075286091461</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.180513379099211</v>
+        <v>-2.697158349991603</v>
       </c>
     </row>
     <row r="5">
@@ -966,19 +966,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-4.029155944660562</v>
+        <v>2.539109879879943</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.200831107853952</v>
+        <v>-3.483170076518939</v>
       </c>
       <c r="D5" t="n">
-        <v>3.540578668196304</v>
+        <v>2.402718522740272</v>
       </c>
       <c r="E5" t="n">
-        <v>1.172162859698816</v>
+        <v>-3.518902021082247</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.613748432004836</v>
+        <v>1.314180963639903</v>
       </c>
     </row>
     <row r="6">
@@ -988,19 +988,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.616878907824075</v>
+        <v>-5.773156621547449</v>
       </c>
       <c r="C6" t="n">
-        <v>-5.352822294509116</v>
+        <v>1.221498133075849</v>
       </c>
       <c r="D6" t="n">
-        <v>3.963673270340919</v>
+        <v>5.057904027993117</v>
       </c>
       <c r="E6" t="n">
-        <v>-6.694497631964569</v>
+        <v>-2.520140096509723</v>
       </c>
       <c r="F6" t="n">
-        <v>4.471729198419041</v>
+        <v>-2.106079026350541</v>
       </c>
     </row>
     <row r="7">
@@ -1010,19 +1010,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.391405553220466</v>
+        <v>1.628138570472341</v>
       </c>
       <c r="C7" t="n">
-        <v>3.379695874319064</v>
+        <v>4.365334581704984</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.5529734841351881</v>
+        <v>-2.198279447061181</v>
       </c>
       <c r="E7" t="n">
-        <v>-5.599077270787865</v>
+        <v>-5.229807162591626</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.708626251008716</v>
+        <v>-3.663722768278787</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2603714250372132</v>
+        <v>1.321321938425434</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.206259173061807</v>
+        <v>-0.4338354638022324</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.867326906775545</v>
+        <v>-5.16984295995897</v>
       </c>
       <c r="E8" t="n">
-        <v>-5.401514226454959</v>
+        <v>-5.657154230781392</v>
       </c>
       <c r="F8" t="n">
-        <v>4.148691235148113</v>
+        <v>1.976347105369299</v>
       </c>
     </row>
     <row r="9">
@@ -1054,19 +1054,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.631416560820565</v>
+        <v>-0.07936415132864055</v>
       </c>
       <c r="C9" t="n">
-        <v>3.522903267833373</v>
+        <v>-2.464298414965569</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02359518056822767</v>
+        <v>4.55573881743635</v>
       </c>
       <c r="E9" t="n">
-        <v>2.147193914060618</v>
+        <v>-5.995771653202896</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.899377559726754</v>
+        <v>-4.808003641775684</v>
       </c>
     </row>
     <row r="10">
@@ -1076,19 +1076,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.579003904740546</v>
+        <v>3.757271184010505</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.600647863225803</v>
+        <v>-6.477694066726119</v>
       </c>
       <c r="D10" t="n">
-        <v>4.756874477663022</v>
+        <v>-2.573384896691499</v>
       </c>
       <c r="E10" t="n">
-        <v>-6.665633419237031</v>
+        <v>-4.322053785951318</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.431661294217504</v>
+        <v>0.8378167773022995</v>
       </c>
     </row>
     <row r="11">
@@ -1098,19 +1098,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5.733641121959042</v>
+        <v>0.6413650284308924</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2187783419972568</v>
+        <v>1.639903189326592</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.616510945878727</v>
+        <v>-3.695625952862356</v>
       </c>
       <c r="E11" t="n">
-        <v>4.592579307285932</v>
+        <v>4.163713578061508</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.761998626554248</v>
+        <v>-4.306610488827829</v>
       </c>
     </row>
     <row r="12">
@@ -1120,19 +1120,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.78541731107352</v>
+        <v>-2.060019205579268</v>
       </c>
       <c r="C12" t="n">
-        <v>3.311282012717154</v>
+        <v>-6.401051732419733</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.445455048731638</v>
+        <v>3.231046710331462</v>
       </c>
       <c r="E12" t="n">
-        <v>2.290788933144136</v>
+        <v>-2.432488003655794</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.422485094344136</v>
+        <v>0.8463587588148337</v>
       </c>
     </row>
     <row r="13">
@@ -1142,19 +1142,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.828790099621407</v>
+        <v>-3.209534167900775</v>
       </c>
       <c r="C13" t="n">
-        <v>1.596151895787254</v>
+        <v>0.3558000965754592</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.03277843478382848</v>
+        <v>-3.05243593155026</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.9962989724158545</v>
+        <v>-0.2788333151629679</v>
       </c>
       <c r="F13" t="n">
-        <v>1.521811805947623</v>
+        <v>7.873953684000542</v>
       </c>
     </row>
     <row r="14">
@@ -1164,19 +1164,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.861809728919606</v>
+        <v>-5.295175010830005</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.957042194711581</v>
+        <v>1.131227096243967</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.006528987355455</v>
+        <v>2.562398101372684</v>
       </c>
       <c r="E14" t="n">
-        <v>5.373336847488569</v>
+        <v>-2.390735042881133</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.289803944693718</v>
+        <v>5.397800030973388</v>
       </c>
     </row>
     <row r="15">
@@ -1186,19 +1186,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.693541888521888</v>
+        <v>2.177444497229319</v>
       </c>
       <c r="C15" t="n">
-        <v>4.171058537088271</v>
+        <v>5.434616710106203</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.08007914907212</v>
+        <v>0.2014267775524752</v>
       </c>
       <c r="E15" t="n">
-        <v>-7.618266479437511</v>
+        <v>0.8545829433993922</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.010353212917932</v>
+        <v>-8.934844014994399</v>
       </c>
     </row>
     <row r="16">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9844179201164096</v>
+        <v>-3.748648673741225</v>
       </c>
       <c r="C16" t="n">
-        <v>2.23450148900825</v>
+        <v>6.134506848671004</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.331071536478865</v>
+        <v>-0.9770572890867881</v>
       </c>
       <c r="E16" t="n">
-        <v>2.147253319961016</v>
+        <v>-5.045647261911529</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.406868734515847</v>
+        <v>0.0004073173482818275</v>
       </c>
     </row>
     <row r="17">
@@ -1230,19 +1230,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4618054340097657</v>
+        <v>-4.04220603528899</v>
       </c>
       <c r="C17" t="n">
-        <v>-8.117856574191403</v>
+        <v>0.1270213930655724</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2747218844424215</v>
+        <v>-4.617181385314815</v>
       </c>
       <c r="E17" t="n">
-        <v>5.358480436770769</v>
+        <v>4.645943853868797</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1567277929826223</v>
+        <v>-4.256011984151143</v>
       </c>
     </row>
     <row r="18">
@@ -1252,19 +1252,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6.315692667296799</v>
+        <v>-2.402123551426188</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5682751228517877</v>
+        <v>-3.972745092795059</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3031953747597756</v>
+        <v>0.6484481367498633</v>
       </c>
       <c r="E18" t="n">
-        <v>-3.616054561302839</v>
+        <v>0.2483005465833525</v>
       </c>
       <c r="F18" t="n">
-        <v>6.828743496034728</v>
+        <v>-2.378260176735109</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte3/Excel/Network16.xlsx
+++ b/Networks/Parte3/Excel/Network16.xlsx
@@ -524,52 +524,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.428760977281065</v>
+        <v>-0.5187340464155517</v>
       </c>
       <c r="C2" t="n">
-        <v>5.68004101729391</v>
+        <v>4.419047669477821</v>
       </c>
       <c r="D2" t="n">
-        <v>1.28398298901559</v>
+        <v>-3.864150576546054</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.09737799470081551</v>
+        <v>3.490559965644987</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.996031393379255</v>
+        <v>-0.7498531249551857</v>
       </c>
       <c r="G2" t="n">
-        <v>2.836351469593412</v>
+        <v>0.3504134571775048</v>
       </c>
       <c r="H2" t="n">
-        <v>-10.78082964444069</v>
+        <v>-3.915775154752221</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.416459620022924</v>
+        <v>0.8065519161360425</v>
       </c>
       <c r="J2" t="n">
-        <v>2.266107707200173</v>
+        <v>0.7737477661689076</v>
       </c>
       <c r="K2" t="n">
-        <v>-5.182194156621267</v>
+        <v>-2.940642713949895</v>
       </c>
       <c r="L2" t="n">
-        <v>1.074353398641001</v>
+        <v>-3.047431620695171</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.2608857752092035</v>
+        <v>-2.940547796728563</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.934160227012524</v>
+        <v>8.561921255815133</v>
       </c>
       <c r="O2" t="n">
-        <v>-4.769400749600577</v>
+        <v>-6.202754919612172</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5615400440118277</v>
+        <v>-4.982959220830635</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1.361707186829378</v>
+        <v>-2.261228450497732</v>
       </c>
     </row>
     <row r="3">
@@ -579,52 +579,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.643852847257581</v>
+        <v>0.7022682241876234</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.096707362625208</v>
+        <v>1.726142470321557</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.8611787306706729</v>
+        <v>-0.5859915925839845</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.065645317002745</v>
+        <v>4.069799605979682</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.762775790708617</v>
+        <v>-0.7748973584698307</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.523584107680517</v>
+        <v>0.300450866634447</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.154673030982617</v>
+        <v>-1.748387339439787</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.408398164368273</v>
+        <v>-2.018038734372259</v>
       </c>
       <c r="J3" t="n">
-        <v>1.169907205180967</v>
+        <v>0.7709450334280292</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.7154347661372219</v>
+        <v>0.231590904581024</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.308888399143896</v>
+        <v>-1.188856928265837</v>
       </c>
       <c r="M3" t="n">
-        <v>-2.91041458773474</v>
+        <v>3.178757503213606</v>
       </c>
       <c r="N3" t="n">
-        <v>-2.179491285932539</v>
+        <v>1.916974199841506</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.8510335758176614</v>
+        <v>-0.5626238049449694</v>
       </c>
       <c r="P3" t="n">
-        <v>6.290235445771343</v>
+        <v>-0.7767438345070991</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.94435150862515</v>
+        <v>-0.654625832851609</v>
       </c>
     </row>
     <row r="4">
@@ -634,52 +634,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.366325567154365</v>
+        <v>1.914671930212624</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.968487064366674</v>
+        <v>2.364538925336557</v>
       </c>
       <c r="D4" t="n">
-        <v>4.267488109370694</v>
+        <v>-2.62988403499639</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.624861782503839</v>
+        <v>2.167856440209436</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.430113144685545</v>
+        <v>-0.2004689647169174</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.611875644718587</v>
+        <v>-8.631682810372332</v>
       </c>
       <c r="H4" t="n">
-        <v>2.1771190325869</v>
+        <v>1.294528528772476</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.6332165852322</v>
+        <v>-4.592118050840825</v>
       </c>
       <c r="J4" t="n">
-        <v>-8.432290358986549</v>
+        <v>-6.410977604972302</v>
       </c>
       <c r="K4" t="n">
-        <v>8.390306251997949</v>
+        <v>2.949635396438314</v>
       </c>
       <c r="L4" t="n">
-        <v>-5.16006459942593</v>
+        <v>-6.110660144790313</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6615743715784816</v>
+        <v>1.657267684171375</v>
       </c>
       <c r="N4" t="n">
-        <v>-7.163070274796368</v>
+        <v>-2.616912231004966</v>
       </c>
       <c r="O4" t="n">
-        <v>1.616024909753165</v>
+        <v>9.057676567221371</v>
       </c>
       <c r="P4" t="n">
-        <v>1.356298075808465</v>
+        <v>-1.240568519713536</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4850904186612024</v>
+        <v>-0.9894351551817854</v>
       </c>
     </row>
     <row r="5">
@@ -689,52 +689,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2.43674075067217</v>
+        <v>-0.6111013339594004</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.759996825274329</v>
+        <v>-2.864432725462735</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.216112783753018</v>
+        <v>1.715960383307781</v>
       </c>
       <c r="E5" t="n">
-        <v>0.685010539025058</v>
+        <v>-0.7060840892334181</v>
       </c>
       <c r="F5" t="n">
-        <v>3.537322841478832</v>
+        <v>0.38505489052529</v>
       </c>
       <c r="G5" t="n">
-        <v>2.711845904784169</v>
+        <v>2.965355459619422</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.668878371590327</v>
+        <v>3.933947259303723</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.618046497710097</v>
+        <v>1.63116406449711</v>
       </c>
       <c r="J5" t="n">
-        <v>0.388066165046104</v>
+        <v>0.5707140834636628</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.109778968014767</v>
+        <v>6.280865724738664</v>
       </c>
       <c r="L5" t="n">
-        <v>1.833982858145732</v>
+        <v>1.033935009147898</v>
       </c>
       <c r="M5" t="n">
-        <v>1.64510854544184</v>
+        <v>-2.450588850430595</v>
       </c>
       <c r="N5" t="n">
-        <v>1.605067321707709</v>
+        <v>0.6053016081204274</v>
       </c>
       <c r="O5" t="n">
-        <v>5.111482837362798</v>
+        <v>-2.205360080869252</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.409847753740384</v>
+        <v>-0.883880630934138</v>
       </c>
       <c r="Q5" t="n">
-        <v>-1.332390545294078</v>
+        <v>0.4842302318628715</v>
       </c>
     </row>
     <row r="6">
@@ -744,52 +744,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.754977597468207</v>
+        <v>4.673965558471672</v>
       </c>
       <c r="C6" t="n">
-        <v>1.929739458937701</v>
+        <v>-2.09969196515245</v>
       </c>
       <c r="D6" t="n">
-        <v>5.817980089370558</v>
+        <v>2.242517453553742</v>
       </c>
       <c r="E6" t="n">
-        <v>-6.294909970296125</v>
+        <v>0.1633279319878645</v>
       </c>
       <c r="F6" t="n">
-        <v>3.253091955963797</v>
+        <v>4.821425387579462</v>
       </c>
       <c r="G6" t="n">
-        <v>5.458497045139507</v>
+        <v>-0.949048642358154</v>
       </c>
       <c r="H6" t="n">
-        <v>-9.749821194315601</v>
+        <v>0.5892727002160509</v>
       </c>
       <c r="I6" t="n">
-        <v>5.043005874016296</v>
+        <v>0.7908147768230779</v>
       </c>
       <c r="J6" t="n">
-        <v>2.098711525469347</v>
+        <v>0.2265844818510245</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.497657823450561</v>
+        <v>-2.507115742653478</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7025833378445446</v>
+        <v>0.1495820371851821</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.06058678699821454</v>
+        <v>-5.541714936511847</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6874597088852906</v>
+        <v>7.794079656753095</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.2081472181665501</v>
+        <v>0.3320432057653442</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.9793616010283673</v>
+        <v>4.889429767976569</v>
       </c>
       <c r="Q6" t="n">
-        <v>-1.635306435982479</v>
+        <v>-5.980477400840487</v>
       </c>
     </row>
     <row r="7">
@@ -799,52 +799,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.541034322644607</v>
+        <v>0.4890977611862486</v>
       </c>
       <c r="C7" t="n">
-        <v>6.682674823801706</v>
+        <v>1.55392667842085</v>
       </c>
       <c r="D7" t="n">
-        <v>4.524412758245215</v>
+        <v>1.268593037356232</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6885324939148677</v>
+        <v>-7.29087137490204</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1423867779931174</v>
+        <v>-1.863527193334981</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.230092553457439</v>
+        <v>1.29127052358194</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4129033055013577</v>
+        <v>-5.226111686788631</v>
       </c>
       <c r="I7" t="n">
-        <v>2.659075942738204</v>
+        <v>-6.30783373649682</v>
       </c>
       <c r="J7" t="n">
-        <v>1.627366644491697</v>
+        <v>1.494949622032561</v>
       </c>
       <c r="K7" t="n">
-        <v>-1.903682071922767</v>
+        <v>-1.806324785750022</v>
       </c>
       <c r="L7" t="n">
-        <v>-6.541444723352545</v>
+        <v>-4.879977138805158</v>
       </c>
       <c r="M7" t="n">
-        <v>-6.852057541991772</v>
+        <v>2.782507451562755</v>
       </c>
       <c r="N7" t="n">
-        <v>-4.327647123897681</v>
+        <v>-0.1975202215212246</v>
       </c>
       <c r="O7" t="n">
-        <v>-3.743478621971892</v>
+        <v>-2.660968472583478</v>
       </c>
       <c r="P7" t="n">
-        <v>-7.648350284349853</v>
+        <v>3.256964016991316</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6984750508648145</v>
+        <v>-0.0439484771343135</v>
       </c>
     </row>
   </sheetData>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.055132281174881</v>
+        <v>-2.558840535899851</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.571133019313372</v>
+        <v>-5.484293230667722</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.415206925965069</v>
+        <v>-1.842873674613337</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.480489795914395</v>
+        <v>-4.621859369561847</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.5353386699153</v>
+        <v>-2.746506054396846</v>
       </c>
     </row>
     <row r="3">
@@ -922,19 +922,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-5.883305813384701</v>
+        <v>4.073121436201555</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.962977681949697</v>
+        <v>-4.2718624169946</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1749266489793656</v>
+        <v>-3.347680507445885</v>
       </c>
       <c r="E3" t="n">
-        <v>3.028220914770116</v>
+        <v>1.381645596205952</v>
       </c>
       <c r="F3" t="n">
-        <v>2.237063706223758</v>
+        <v>-0.1444520620882647</v>
       </c>
     </row>
     <row r="4">
@@ -944,19 +944,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.537401139773989</v>
+        <v>-2.923026995704638</v>
       </c>
       <c r="C4" t="n">
-        <v>-5.38120102497442</v>
+        <v>-7.239814395472113</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.681158868377262</v>
+        <v>0.119852593159739</v>
       </c>
       <c r="E4" t="n">
-        <v>4.864075286091461</v>
+        <v>1.067347263652643</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.697158349991603</v>
+        <v>0.8410265269058328</v>
       </c>
     </row>
     <row r="5">
@@ -966,19 +966,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.539109879879943</v>
+        <v>2.799913133395175</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.483170076518939</v>
+        <v>1.779432642729948</v>
       </c>
       <c r="D5" t="n">
-        <v>2.402718522740272</v>
+        <v>-1.112633575024435</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.518902021082247</v>
+        <v>-5.872699210464677</v>
       </c>
       <c r="F5" t="n">
-        <v>1.314180963639903</v>
+        <v>-5.258968859269221</v>
       </c>
     </row>
     <row r="6">
@@ -988,19 +988,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.773156621547449</v>
+        <v>-4.977515449863591</v>
       </c>
       <c r="C6" t="n">
-        <v>1.221498133075849</v>
+        <v>0.4956951777024953</v>
       </c>
       <c r="D6" t="n">
-        <v>5.057904027993117</v>
+        <v>-4.082251433654496</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.520140096509723</v>
+        <v>4.241644235653673</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.106079026350541</v>
+        <v>1.956714915525747</v>
       </c>
     </row>
     <row r="7">
@@ -1010,19 +1010,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.628138570472341</v>
+        <v>2.415001164296287</v>
       </c>
       <c r="C7" t="n">
-        <v>4.365334581704984</v>
+        <v>0.3231399668001641</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.198279447061181</v>
+        <v>-3.542064860934514</v>
       </c>
       <c r="E7" t="n">
-        <v>-5.229807162591626</v>
+        <v>-6.175675185495254</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.663722768278787</v>
+        <v>-1.617696523751887</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.321321938425434</v>
+        <v>-0.2783116731452685</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4338354638022324</v>
+        <v>1.782331902329344</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.16984295995897</v>
+        <v>-4.448254823366733</v>
       </c>
       <c r="E8" t="n">
-        <v>-5.657154230781392</v>
+        <v>5.689869962146608</v>
       </c>
       <c r="F8" t="n">
-        <v>1.976347105369299</v>
+        <v>-3.64935581037067</v>
       </c>
     </row>
     <row r="9">
@@ -1054,19 +1054,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.07936415132864055</v>
+        <v>-4.443250312954568</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.464298414965569</v>
+        <v>3.710431894522507</v>
       </c>
       <c r="D9" t="n">
-        <v>4.55573881743635</v>
+        <v>-2.38001571863711</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.995771653202896</v>
+        <v>-6.113989069473012</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.808003641775684</v>
+        <v>1.941110951822401</v>
       </c>
     </row>
     <row r="10">
@@ -1076,19 +1076,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.757271184010505</v>
+        <v>-3.244442439242248</v>
       </c>
       <c r="C10" t="n">
-        <v>-6.477694066726119</v>
+        <v>-0.6077921262717716</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.573384896691499</v>
+        <v>-1.409824765854768</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.322053785951318</v>
+        <v>-2.624673272795286</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8378167773022995</v>
+        <v>7.793057878741234</v>
       </c>
     </row>
     <row r="11">
@@ -1098,19 +1098,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6413650284308924</v>
+        <v>2.454841569049246</v>
       </c>
       <c r="C11" t="n">
-        <v>1.639903189326592</v>
+        <v>-0.4310077513866654</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.695625952862356</v>
+        <v>-3.457199580525747</v>
       </c>
       <c r="E11" t="n">
-        <v>4.163713578061508</v>
+        <v>1.427040870312688</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.306610488827829</v>
+        <v>-3.373567325519763</v>
       </c>
     </row>
     <row r="12">
@@ -1120,19 +1120,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.060019205579268</v>
+        <v>-2.580642885073689</v>
       </c>
       <c r="C12" t="n">
-        <v>-6.401051732419733</v>
+        <v>5.642307957377977</v>
       </c>
       <c r="D12" t="n">
-        <v>3.231046710331462</v>
+        <v>2.302277588063558</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.432488003655794</v>
+        <v>-3.651479132299424</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8463587588148337</v>
+        <v>-0.4059531633618648</v>
       </c>
     </row>
     <row r="13">
@@ -1142,19 +1142,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-3.209534167900775</v>
+        <v>-1.672648755711318</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3558000965754592</v>
+        <v>5.376463450031652</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.05243593155026</v>
+        <v>1.455783482361089</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2788333151629679</v>
+        <v>2.650223203949256</v>
       </c>
       <c r="F13" t="n">
-        <v>7.873953684000542</v>
+        <v>-7.214686791929538</v>
       </c>
     </row>
     <row r="14">
@@ -1164,19 +1164,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.295175010830005</v>
+        <v>-3.02076007774256</v>
       </c>
       <c r="C14" t="n">
-        <v>1.131227096243967</v>
+        <v>-2.35495458456563</v>
       </c>
       <c r="D14" t="n">
-        <v>2.562398101372684</v>
+        <v>4.366630042211237</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.390735042881133</v>
+        <v>3.39320597733911</v>
       </c>
       <c r="F14" t="n">
-        <v>5.397800030973388</v>
+        <v>-5.288824743537254</v>
       </c>
     </row>
     <row r="15">
@@ -1186,19 +1186,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.177444497229319</v>
+        <v>0.8479041732841873</v>
       </c>
       <c r="C15" t="n">
-        <v>5.434616710106203</v>
+        <v>-2.254730556424192</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2014267775524752</v>
+        <v>-4.436905136063136</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8545829433993922</v>
+        <v>3.793956204525919</v>
       </c>
       <c r="F15" t="n">
-        <v>-8.934844014994399</v>
+        <v>0.4469453891216076</v>
       </c>
     </row>
     <row r="16">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3.748648673741225</v>
+        <v>-3.346309188462638</v>
       </c>
       <c r="C16" t="n">
-        <v>6.134506848671004</v>
+        <v>-6.210508271994493</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.9770572890867881</v>
+        <v>3.606267634828213</v>
       </c>
       <c r="E16" t="n">
-        <v>-5.045647261911529</v>
+        <v>-4.288435037297985</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0004073173482818275</v>
+        <v>0.1816914511599055</v>
       </c>
     </row>
     <row r="17">
@@ -1230,19 +1230,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4.04220603528899</v>
+        <v>5.415023037491717</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1270213930655724</v>
+        <v>-4.959098003722789</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.617181385314815</v>
+        <v>-2.075983783196994</v>
       </c>
       <c r="E17" t="n">
-        <v>4.645943853868797</v>
+        <v>-7.123775358754289</v>
       </c>
       <c r="F17" t="n">
-        <v>-4.256011984151143</v>
+        <v>0.1968348909158728</v>
       </c>
     </row>
     <row r="18">
@@ -1252,19 +1252,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-2.402123551426188</v>
+        <v>-0.6614692055500739</v>
       </c>
       <c r="C18" t="n">
-        <v>-3.972745092795059</v>
+        <v>-2.3093479120564</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6484481367498633</v>
+        <v>2.646742730408105</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2483005465833525</v>
+        <v>-4.653164214096787</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.378260176735109</v>
+        <v>-3.485011259134959</v>
       </c>
     </row>
   </sheetData>
